--- a/Data/15/Christmas-15-Processed.xlsx
+++ b/Data/15/Christmas-15-Processed.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\si140\PJ\SI140A-proj\Data\15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D3942-4240-4691-B2E7-682CBCF5EB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893A13D-B3BF-4303-9DB9-B5BF8A1639BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Received" sheetId="1" r:id="rId1"/>
-    <sheet name="TotalLeft" sheetId="2" r:id="rId2"/>
+    <sheet name="Total" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Data/15/Christmas-15-Processed.xlsx
+++ b/Data/15/Christmas-15-Processed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="Received" sheetId="1" r:id="rId1"/>
@@ -8121,8 +8121,8 @@
   <sheetPr/>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P159" sqref="P159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16141,7 +16141,7 @@
   <sheetPr/>
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
